--- a/outputs/companies.xlsx
+++ b/outputs/companies.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="397">
   <si>
     <t>Company Name</t>
   </si>
@@ -104,6 +104,9 @@
     <t>Episource LLC</t>
   </si>
   <si>
+    <t>CitiusTech</t>
+  </si>
+  <si>
     <t>logiNext</t>
   </si>
   <si>
@@ -308,9 +311,6 @@
     <t>Graftek Imaging</t>
   </si>
   <si>
-    <t>NVIDIA</t>
-  </si>
-  <si>
     <t>Microscan</t>
   </si>
   <si>
@@ -419,9 +419,6 @@
     <t>Vicator</t>
   </si>
   <si>
-    <t>image metrics</t>
-  </si>
-  <si>
     <t>Nine Point Medical</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
     <t>Wobot Intelligence</t>
   </si>
   <si>
+    <t>streamingo.ai</t>
+  </si>
+  <si>
     <t>casetext</t>
   </si>
   <si>
@@ -731,6 +731,9 @@
     <t>https://www.episource.com/careers/</t>
   </si>
   <si>
+    <t>https://citiustech.applytojob.com/</t>
+  </si>
+  <si>
     <t>https://www.loginextsolutions.com/careers</t>
   </si>
   <si>
@@ -932,9 +935,6 @@
     <t>https://www.graftek.biz/contact</t>
   </si>
   <si>
-    <t>http://careers.nvidia.com/pljb/nvidia/nvidiaemployment/applicant/index.jsp</t>
-  </si>
-  <si>
     <t>http://www.microscan.com/en-us/aboutus/CareerOpportunities.aspx</t>
   </si>
   <si>
@@ -1122,6 +1122,9 @@
   </si>
   <si>
     <t>http://www.wobot.ai/careers</t>
+  </si>
+  <si>
+    <t>https://angel.co/company/streamingo-solutions-1/jobs</t>
   </si>
   <si>
     <t>https://jobs.lever.co/casetext/</t>
@@ -1573,7 +1576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1881,7 +1884,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>238</v>
@@ -1903,7 +1906,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>240</v>
@@ -1947,7 +1950,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>244</v>
@@ -1958,7 +1961,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>245</v>
@@ -1980,7 +1983,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>247</v>
@@ -1991,7 +1994,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>248</v>
@@ -2057,7 +2060,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>254</v>
@@ -2071,7 +2074,7 @@
         <v>198</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2082,7 +2085,7 @@
         <v>198</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2112,7 +2115,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>258</v>
@@ -3039,7 +3042,7 @@
         <v>199</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3050,7 +3053,7 @@
         <v>199</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3061,7 +3064,7 @@
         <v>199</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3072,7 +3075,7 @@
         <v>199</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3083,7 +3086,7 @@
         <v>199</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3094,7 +3097,7 @@
         <v>199</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3105,7 +3108,7 @@
         <v>199</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3116,7 +3119,7 @@
         <v>199</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3127,7 +3130,7 @@
         <v>199</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3138,7 +3141,7 @@
         <v>199</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3149,7 +3152,7 @@
         <v>199</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3160,7 +3163,7 @@
         <v>199</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3171,7 +3174,7 @@
         <v>199</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3182,7 +3185,7 @@
         <v>199</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3193,7 +3196,7 @@
         <v>199</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3204,7 +3207,7 @@
         <v>199</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3215,7 +3218,7 @@
         <v>199</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3226,7 +3229,7 @@
         <v>199</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3237,7 +3240,7 @@
         <v>199</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3248,7 +3251,7 @@
         <v>199</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3259,7 +3262,7 @@
         <v>199</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3270,7 +3273,7 @@
         <v>199</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3281,7 +3284,7 @@
         <v>199</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3292,7 +3295,7 @@
         <v>199</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3303,7 +3306,7 @@
         <v>199</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3314,7 +3317,7 @@
         <v>199</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3325,337 +3328,326 @@
         <v>199</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
         <v>199</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
         <v>201</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
         <v>201</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
         <v>203</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
         <v>205</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
         <v>209</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B178" t="s">
         <v>211</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>385</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B179" t="s">
         <v>211</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>253</v>
+        <v>387</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
         <v>211</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
         <v>211</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B182" t="s">
         <v>211</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
         <v>211</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
         <v>211</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
         <v>211</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s">
         <v>211</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
         <v>211</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
         <v>211</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189" t="s">
-        <v>211</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3721,8 +3713,8 @@
     <hyperlink ref="C60" r:id="rId59"/>
     <hyperlink ref="C61" r:id="rId60"/>
     <hyperlink ref="C62" r:id="rId61"/>
-    <hyperlink ref="C63" r:id="rId62" location="joboffers"/>
-    <hyperlink ref="C64" r:id="rId63"/>
+    <hyperlink ref="C63" r:id="rId62"/>
+    <hyperlink ref="C64" r:id="rId63" location="joboffers"/>
     <hyperlink ref="C65" r:id="rId64"/>
     <hyperlink ref="C66" r:id="rId65"/>
     <hyperlink ref="C67" r:id="rId66"/>
@@ -3752,8 +3744,8 @@
     <hyperlink ref="C91" r:id="rId90"/>
     <hyperlink ref="C92" r:id="rId91"/>
     <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93" location="careers"/>
-    <hyperlink ref="C95" r:id="rId94"/>
+    <hyperlink ref="C94" r:id="rId93"/>
+    <hyperlink ref="C95" r:id="rId94" location="careers"/>
     <hyperlink ref="C96" r:id="rId95"/>
     <hyperlink ref="C97" r:id="rId96"/>
     <hyperlink ref="C98" r:id="rId97"/>
@@ -3791,7 +3783,7 @@
     <hyperlink ref="C130" r:id="rId129"/>
     <hyperlink ref="C131" r:id="rId130"/>
     <hyperlink ref="C132" r:id="rId131"/>
-    <hyperlink ref="C133" r:id="rId132" location="careers"/>
+    <hyperlink ref="C133" r:id="rId132"/>
     <hyperlink ref="C134" r:id="rId133"/>
     <hyperlink ref="C135" r:id="rId134"/>
     <hyperlink ref="C136" r:id="rId135"/>
@@ -3832,8 +3824,8 @@
     <hyperlink ref="C171" r:id="rId170"/>
     <hyperlink ref="C172" r:id="rId171"/>
     <hyperlink ref="C173" r:id="rId172"/>
-    <hyperlink ref="C174" r:id="rId173"/>
-    <hyperlink ref="C175" r:id="rId174" location="/careers"/>
+    <hyperlink ref="C174" r:id="rId173" location="/careers"/>
+    <hyperlink ref="C175" r:id="rId174"/>
     <hyperlink ref="C176" r:id="rId175"/>
     <hyperlink ref="C177" r:id="rId176"/>
     <hyperlink ref="C178" r:id="rId177"/>
@@ -3845,9 +3837,8 @@
     <hyperlink ref="C184" r:id="rId183"/>
     <hyperlink ref="C185" r:id="rId184"/>
     <hyperlink ref="C186" r:id="rId185"/>
-    <hyperlink ref="C187" r:id="rId186"/>
-    <hyperlink ref="C188" r:id="rId187" location="?show=all"/>
-    <hyperlink ref="C189" r:id="rId188"/>
+    <hyperlink ref="C187" r:id="rId186" location="?show=all"/>
+    <hyperlink ref="C188" r:id="rId187"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3874,7 +3865,7 @@
         <v>199</v>
       </c>
       <c r="B2">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3898,7 +3889,7 @@
         <v>191</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
